--- a/BeatCalc.xlsx
+++ b/BeatCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Dropbox/Eurorack/Master Rythm/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB004ACE-47B2-D548-A6C0-C8643B5BFE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529A549-1E3F-AD4D-B64F-5521D8FA78CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8280" yWindow="500" windowWidth="20520" windowHeight="15940" xr2:uid="{1487C26C-FCB9-F54E-9178-3CE06A040173}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,14 +710,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7"/>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="O7">
         <v>1</v>
       </c>
@@ -808,7 +817,7 @@
       </c>
       <c r="E10">
         <f t="shared" ref="E10:S10" si="1">E9*$C9+E8*$C8+E7*$C7+E6*$C6+E5*$C5+E4*$C4+E3*$C3+E2*$C2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -824,7 +833,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -840,7 +849,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
@@ -874,7 +883,7 @@
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ref="E11:S11" si="2">DEC2HEX(E10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -890,7 +899,7 @@
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -906,7 +915,7 @@
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3" t="str">
         <f t="shared" si="2"/>
